--- a/Leerplanillacupos/data/140823.xlsx
+++ b/Leerplanillacupos/data/140823.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gastonmousques/workspace/ExcelExporter/excelconverter/Leerplanillacupos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A979FCE-9CA7-1448-97BE-E27FEAA87358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B85F3-EF84-6E41-92F8-CA8FCFAECA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="760" windowWidth="21600" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Turno</t>
   </si>
   <si>
-    <t>Ins/Cupo</t>
-  </si>
-  <si>
     <t>Tipo dictado</t>
   </si>
   <si>
@@ -1791,6 +1788,9 @@
   </si>
   <si>
     <t>SGE - Programa 1153</t>
+  </si>
+  <si>
+    <t>Ins_Cupo</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13"/>
@@ -2239,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2250,22 +2250,22 @@
         <v>66245</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>6402</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2273,22 +2273,22 @@
         <v>66246</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>6402</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2296,22 +2296,22 @@
         <v>67416</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>6402</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2319,22 +2319,22 @@
         <v>66433</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>1781</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2342,22 +2342,22 @@
         <v>66254</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>6402</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2365,22 +2365,22 @@
         <v>67540</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>6402</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2388,22 +2388,22 @@
         <v>66077</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>7269</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2411,22 +2411,22 @@
         <v>66474</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>2103</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2434,22 +2434,22 @@
         <v>66476</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>2103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2457,22 +2457,22 @@
         <v>66478</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>2103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2480,22 +2480,22 @@
         <v>66095</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4">
         <v>5542</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2503,22 +2503,22 @@
         <v>66464</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>7655</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2526,22 +2526,22 @@
         <v>66465</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>7655</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2549,22 +2549,22 @@
         <v>66440</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <v>6455</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2572,22 +2572,22 @@
         <v>66442</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4">
         <v>6455</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2595,22 +2595,22 @@
         <v>66367</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
         <v>3831</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2618,22 +2618,22 @@
         <v>66368</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <v>3831</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2641,22 +2641,22 @@
         <v>66369</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4">
         <v>3831</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2664,22 +2664,22 @@
         <v>66515</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4">
         <v>3851</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2687,22 +2687,22 @@
         <v>67339</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4">
         <v>3851</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2710,22 +2710,22 @@
         <v>66469</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4">
         <v>7658</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2733,22 +2733,22 @@
         <v>66758</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4">
         <v>7902</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2756,22 +2756,22 @@
         <v>66043</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4">
         <v>6432</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2779,22 +2779,22 @@
         <v>66049</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4">
         <v>6432</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2802,22 +2802,22 @@
         <v>66055</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4">
         <v>6432</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2825,22 +2825,22 @@
         <v>66439</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4">
         <v>4231</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2848,22 +2848,22 @@
         <v>66279</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4">
         <v>3837</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2871,22 +2871,22 @@
         <v>66424</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4">
         <v>3837</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2894,22 +2894,22 @@
         <v>66421</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4">
         <v>3837</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2917,22 +2917,22 @@
         <v>66422</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4">
         <v>3837</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2940,22 +2940,22 @@
         <v>66423</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4">
         <v>3837</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2963,22 +2963,22 @@
         <v>66283</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4">
         <v>3837</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2986,22 +2986,22 @@
         <v>66425</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4">
         <v>3837</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3009,22 +3009,22 @@
         <v>66289</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4">
         <v>3839</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3032,22 +3032,22 @@
         <v>66292</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4">
         <v>3839</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3055,22 +3055,22 @@
         <v>66427</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4">
         <v>3839</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3078,22 +3078,22 @@
         <v>66293</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="4">
         <v>3839</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3101,22 +3101,22 @@
         <v>66429</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="4">
         <v>3839</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3124,22 +3124,22 @@
         <v>66301</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4">
         <v>3842</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3147,22 +3147,22 @@
         <v>66438</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="4">
         <v>3842</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3170,22 +3170,22 @@
         <v>66079</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="4">
         <v>5527</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3193,22 +3193,22 @@
         <v>66089</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4">
         <v>5527</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3216,22 +3216,22 @@
         <v>66066</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="4">
         <v>5520</v>
       </c>
       <c r="D44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3239,22 +3239,22 @@
         <v>66074</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4">
         <v>5520</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3262,22 +3262,22 @@
         <v>66080</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4">
         <v>5528</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3285,22 +3285,22 @@
         <v>66090</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4">
         <v>5528</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3308,22 +3308,22 @@
         <v>66084</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4">
         <v>5544</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3331,22 +3331,22 @@
         <v>66092</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="4">
         <v>5544</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3354,22 +3354,22 @@
         <v>66475</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4">
         <v>7660</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3377,22 +3377,22 @@
         <v>66479</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4">
         <v>7660</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3400,22 +3400,22 @@
         <v>66480</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4">
         <v>7660</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3423,22 +3423,22 @@
         <v>66481</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4">
         <v>7660</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3446,22 +3446,22 @@
         <v>66627</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4">
         <v>7691</v>
       </c>
       <c r="D54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3469,22 +3469,22 @@
         <v>66632</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4">
         <v>2106</v>
       </c>
       <c r="D55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="G55" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3492,22 +3492,22 @@
         <v>66628</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4">
         <v>7661</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3515,22 +3515,22 @@
         <v>66798</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4">
         <v>7662</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3538,22 +3538,22 @@
         <v>66527</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4">
         <v>7235</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="G58" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3561,22 +3561,22 @@
         <v>66523</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4">
         <v>7235</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3584,22 +3584,22 @@
         <v>66444</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4">
         <v>7666</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3607,22 +3607,22 @@
         <v>66468</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4">
         <v>7666</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3630,22 +3630,22 @@
         <v>66445</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4">
         <v>7666</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3653,22 +3653,22 @@
         <v>66985</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4">
         <v>5312</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G63" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3676,22 +3676,22 @@
         <v>66759</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4">
         <v>4784</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3699,22 +3699,22 @@
         <v>66441</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4">
         <v>7667</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3722,22 +3722,22 @@
         <v>66454</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4">
         <v>3924</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="G66" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3745,22 +3745,22 @@
         <v>66456</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4">
         <v>3924</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3768,22 +3768,22 @@
         <v>66497</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4">
         <v>3924</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3791,22 +3791,22 @@
         <v>66459</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4">
         <v>3924</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3814,22 +3814,22 @@
         <v>66498</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" s="4">
         <v>3924</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3837,22 +3837,22 @@
         <v>66460</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="4">
         <v>6343</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3860,22 +3860,22 @@
         <v>66499</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4">
         <v>6343</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3883,22 +3883,22 @@
         <v>66500</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4">
         <v>6343</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3906,22 +3906,22 @@
         <v>66501</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4">
         <v>6343</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3929,22 +3929,22 @@
         <v>66461</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4">
         <v>6343</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3952,22 +3952,22 @@
         <v>66502</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="4">
         <v>6343</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3975,22 +3975,22 @@
         <v>66631</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4">
         <v>7742</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="G77" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3998,22 +3998,22 @@
         <v>66068</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="4">
         <v>5516</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="G78" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4021,22 +4021,22 @@
         <v>66076</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" s="4">
         <v>5516</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4044,22 +4044,22 @@
         <v>66083</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="4">
         <v>5516</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4067,22 +4067,22 @@
         <v>66648</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4">
         <v>3879</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4090,22 +4090,22 @@
         <v>66642</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4">
         <v>7206</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4113,22 +4113,22 @@
         <v>66646</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C83" s="4">
         <v>6852</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4136,22 +4136,22 @@
         <v>66311</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" s="4">
         <v>6415</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="G84" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4159,22 +4159,22 @@
         <v>66315</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="4">
         <v>1774</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4182,22 +4182,22 @@
         <v>66364</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86" s="4">
         <v>1774</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4205,22 +4205,22 @@
         <v>66316</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C87" s="4">
         <v>1774</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4228,22 +4228,22 @@
         <v>66365</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C88" s="4">
         <v>1774</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4251,22 +4251,22 @@
         <v>66317</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C89" s="4">
         <v>1774</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4274,22 +4274,22 @@
         <v>67503</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" s="4">
         <v>1774</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4297,22 +4297,22 @@
         <v>66377</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" s="4">
         <v>1778</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="G91" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4320,22 +4320,22 @@
         <v>66378</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" s="4">
         <v>1778</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4343,22 +4343,22 @@
         <v>66379</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" s="4">
         <v>1778</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4366,22 +4366,22 @@
         <v>66380</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C94" s="4">
         <v>1778</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4389,22 +4389,22 @@
         <v>66381</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" s="4">
         <v>1778</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4412,22 +4412,22 @@
         <v>66450</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" s="4">
         <v>7108</v>
       </c>
       <c r="D96" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="G96" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4435,22 +4435,22 @@
         <v>66309</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C97" s="4">
         <v>6411</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G97" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4458,22 +4458,22 @@
         <v>66449</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C98" s="4">
         <v>6411</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4481,22 +4481,22 @@
         <v>66044</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C99" s="4">
         <v>5499</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4504,22 +4504,22 @@
         <v>66050</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" s="4">
         <v>5499</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4527,22 +4527,22 @@
         <v>66056</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" s="4">
         <v>5499</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4550,22 +4550,22 @@
         <v>66629</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="4">
         <v>7743</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="G102" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4573,22 +4573,22 @@
         <v>66065</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" s="4">
         <v>5513</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4596,22 +4596,22 @@
         <v>66073</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C104" s="4">
         <v>5513</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4619,22 +4619,22 @@
         <v>66347</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C105" s="4">
         <v>7670</v>
       </c>
       <c r="D105" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4642,22 +4642,22 @@
         <v>66349</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" s="4">
         <v>7670</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4665,22 +4665,22 @@
         <v>66350</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" s="4">
         <v>7670</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4688,22 +4688,22 @@
         <v>66351</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="4">
         <v>7670</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4711,22 +4711,22 @@
         <v>66352</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C109" s="4">
         <v>7670</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4734,22 +4734,22 @@
         <v>66353</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="4">
         <v>7670</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4757,22 +4757,22 @@
         <v>66490</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C111" s="4">
         <v>7670</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E111" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="G111" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4780,22 +4780,22 @@
         <v>66482</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C112" s="4">
         <v>6449</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4803,22 +4803,22 @@
         <v>66483</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C113" s="4">
         <v>6449</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4826,22 +4826,22 @@
         <v>66484</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C114" s="4">
         <v>6449</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4849,22 +4849,22 @@
         <v>66485</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C115" s="4">
         <v>6449</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4872,22 +4872,22 @@
         <v>66486</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C116" s="4">
         <v>6449</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4895,22 +4895,22 @@
         <v>66487</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" s="4">
         <v>6449</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4918,22 +4918,22 @@
         <v>66488</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C118" s="4">
         <v>6449</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4941,22 +4941,22 @@
         <v>66452</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C119" s="4">
         <v>7669</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="G119" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4964,22 +4964,22 @@
         <v>66496</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C120" s="4">
         <v>7669</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4987,22 +4987,22 @@
         <v>66492</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C121" s="4">
         <v>7669</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5010,22 +5010,22 @@
         <v>66493</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C122" s="4">
         <v>7669</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5033,22 +5033,22 @@
         <v>66494</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C123" s="4">
         <v>7669</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5056,22 +5056,22 @@
         <v>66458</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C124" s="4">
         <v>7669</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5079,22 +5079,22 @@
         <v>66495</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C125" s="4">
         <v>7669</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5102,22 +5102,22 @@
         <v>66392</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" s="4">
         <v>7109</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5125,22 +5125,22 @@
         <v>66393</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C127" s="4">
         <v>7109</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5148,22 +5148,22 @@
         <v>67415</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C128" s="4">
         <v>7109</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5171,22 +5171,22 @@
         <v>66451</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C129" s="4">
         <v>7109</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5194,22 +5194,22 @@
         <v>66267</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C130" s="4">
         <v>6406</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5217,22 +5217,22 @@
         <v>66268</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" s="4">
         <v>6406</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5240,22 +5240,22 @@
         <v>66269</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" s="4">
         <v>6406</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5263,22 +5263,22 @@
         <v>66271</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C133" s="4">
         <v>6406</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5286,22 +5286,22 @@
         <v>66650</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C134" s="4">
         <v>7209</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5309,22 +5309,22 @@
         <v>66063</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135" s="4">
         <v>5529</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5332,22 +5332,22 @@
         <v>66072</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="4">
         <v>5529</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5355,22 +5355,22 @@
         <v>66546</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="4">
         <v>7879</v>
       </c>
       <c r="D137" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="G137" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5378,22 +5378,22 @@
         <v>67309</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C138" s="4">
         <v>3844</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5401,22 +5401,22 @@
         <v>66760</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C139" s="4">
         <v>5733</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="G139" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5424,22 +5424,22 @@
         <v>66727</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C140" s="4">
         <v>5733</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5447,22 +5447,22 @@
         <v>66310</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C141" s="4">
         <v>7715</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E141" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="G141" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5470,22 +5470,22 @@
         <v>66291</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C142" s="4">
         <v>7697</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5493,22 +5493,22 @@
         <v>66296</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C143" s="4">
         <v>7697</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5516,22 +5516,22 @@
         <v>66297</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C144" s="4">
         <v>7697</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5539,22 +5539,22 @@
         <v>66507</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C145" s="4">
         <v>7674</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5562,22 +5562,22 @@
         <v>66508</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C146" s="4">
         <v>7674</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5585,22 +5585,22 @@
         <v>66509</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C147" s="4">
         <v>7674</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5608,22 +5608,22 @@
         <v>66467</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C148" s="4">
         <v>7674</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5631,22 +5631,22 @@
         <v>66510</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C149" s="4">
         <v>7674</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5654,22 +5654,22 @@
         <v>66516</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C150" s="4">
         <v>7675</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="G150" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5677,22 +5677,22 @@
         <v>66754</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C151" s="4">
         <v>8566</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5700,22 +5700,22 @@
         <v>66081</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C152" s="4">
         <v>5522</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5723,22 +5723,22 @@
         <v>66091</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C153" s="4">
         <v>5522</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5746,22 +5746,22 @@
         <v>66096</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C154" s="4">
         <v>7901</v>
       </c>
       <c r="D154" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="G154" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5769,22 +5769,22 @@
         <v>66761</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C155" s="4">
         <v>6934</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5792,22 +5792,22 @@
         <v>66762</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C156" s="4">
         <v>8561</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5815,22 +5815,22 @@
         <v>66517</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C157" s="4">
         <v>3876</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5838,22 +5838,22 @@
         <v>66443</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C158" s="4">
         <v>7676</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5861,22 +5861,22 @@
         <v>67342</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C159" s="4">
         <v>7676</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5884,22 +5884,22 @@
         <v>66098</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C160" s="4">
         <v>7268</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="G160" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5907,22 +5907,22 @@
         <v>66097</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C161" s="4">
         <v>7268</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5930,22 +5930,22 @@
         <v>66071</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C162" s="4">
         <v>6397</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5953,22 +5953,22 @@
         <v>66745</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C163" s="4">
         <v>6397</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5976,22 +5976,22 @@
         <v>66070</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C164" s="4">
         <v>6397</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5999,22 +5999,22 @@
         <v>66069</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C165" s="4">
         <v>6397</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6022,22 +6022,22 @@
         <v>66054</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C166" s="4">
         <v>6393</v>
       </c>
       <c r="D166" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E166" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="G166" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6045,22 +6045,22 @@
         <v>66048</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C167" s="4">
         <v>6393</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6068,22 +6068,22 @@
         <v>66061</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C168" s="4">
         <v>6393</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6091,22 +6091,22 @@
         <v>66060</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C169" s="4">
         <v>6393</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6114,22 +6114,22 @@
         <v>66062</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C170" s="4">
         <v>6393</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6137,22 +6137,22 @@
         <v>66088</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C171" s="4">
         <v>5531</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E171" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="G171" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6160,22 +6160,22 @@
         <v>66086</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C172" s="4">
         <v>5531</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6183,22 +6183,22 @@
         <v>66085</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C173" s="4">
         <v>5531</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6206,22 +6206,22 @@
         <v>66446</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C174" s="4">
         <v>1793</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6229,22 +6229,22 @@
         <v>66447</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C175" s="4">
         <v>1793</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6252,22 +6252,22 @@
         <v>66370</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C176" s="4">
         <v>6563</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6275,22 +6275,22 @@
         <v>66375</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C177" s="4">
         <v>6563</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6298,22 +6298,22 @@
         <v>66376</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C178" s="4">
         <v>6563</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6321,22 +6321,22 @@
         <v>66257</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C179" s="4">
         <v>7698</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6344,22 +6344,22 @@
         <v>66272</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C180" s="4">
         <v>7698</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6367,22 +6367,22 @@
         <v>66273</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C181" s="4">
         <v>7698</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6390,22 +6390,22 @@
         <v>66275</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C182" s="4">
         <v>7698</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6413,22 +6413,22 @@
         <v>66302</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C183" s="4">
         <v>7678</v>
       </c>
       <c r="D183" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E183" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="G183" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6436,22 +6436,22 @@
         <v>66434</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C184" s="4">
         <v>7678</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6459,22 +6459,22 @@
         <v>66528</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C185" s="4">
         <v>8486</v>
       </c>
       <c r="D185" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E185" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="G185" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6482,22 +6482,22 @@
         <v>66435</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C186" s="4">
         <v>7349</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6505,22 +6505,22 @@
         <v>66436</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C187" s="4">
         <v>7349</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6528,22 +6528,22 @@
         <v>66437</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C188" s="4">
         <v>7349</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6551,22 +6551,22 @@
         <v>66281</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C189" s="4">
         <v>7680</v>
       </c>
       <c r="D189" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E189" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="G189" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6574,22 +6574,22 @@
         <v>67407</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C190" s="4">
         <v>7680</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6597,22 +6597,22 @@
         <v>66286</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C191" s="4">
         <v>7680</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6620,22 +6620,22 @@
         <v>66046</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C192" s="4">
         <v>5504</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6643,22 +6643,22 @@
         <v>66052</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" s="4">
         <v>5504</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6666,22 +6666,22 @@
         <v>66058</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C194" s="4">
         <v>5504</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6689,22 +6689,22 @@
         <v>66067</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C195" s="4">
         <v>6526</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6712,22 +6712,22 @@
         <v>66075</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C196" s="4">
         <v>6526</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6735,22 +6735,22 @@
         <v>66394</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C197" s="4">
         <v>6580</v>
       </c>
       <c r="D197" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="G197" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6758,22 +6758,22 @@
         <v>66359</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C198" s="4">
         <v>6580</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6781,22 +6781,22 @@
         <v>66360</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" s="4">
         <v>6580</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6804,22 +6804,22 @@
         <v>66361</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C200" s="4">
         <v>6580</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6827,22 +6827,22 @@
         <v>66362</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C201" s="4">
         <v>6580</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6850,22 +6850,22 @@
         <v>66348</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C202" s="4">
         <v>6580</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6873,22 +6873,22 @@
         <v>66491</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C203" s="4">
         <v>6580</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6896,22 +6896,22 @@
         <v>66763</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C204" s="4">
         <v>6110</v>
       </c>
       <c r="D204" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E204" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>399</v>
-      </c>
       <c r="G204" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6919,22 +6919,22 @@
         <v>66462</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C205" s="4">
         <v>7681</v>
       </c>
       <c r="D205" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E205" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="G205" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6942,22 +6942,22 @@
         <v>66463</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C206" s="4">
         <v>7681</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6965,22 +6965,22 @@
         <v>66064</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C207" s="4">
         <v>5515</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6988,22 +6988,22 @@
         <v>66726</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C208" s="4">
         <v>8420</v>
       </c>
       <c r="D208" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E208" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="G208" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7011,22 +7011,22 @@
         <v>66448</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C209" s="4">
         <v>8420</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7034,22 +7034,22 @@
         <v>66101</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C210" s="4">
         <v>6527</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7057,22 +7057,22 @@
         <v>66417</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C211" s="4">
         <v>7690</v>
       </c>
       <c r="D211" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E211" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>416</v>
-      </c>
       <c r="G211" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7080,22 +7080,22 @@
         <v>66418</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C212" s="4">
         <v>7690</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7103,22 +7103,22 @@
         <v>66419</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C213" s="4">
         <v>7690</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7126,22 +7126,22 @@
         <v>66420</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C214" s="4">
         <v>7690</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7149,22 +7149,22 @@
         <v>66426</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C215" s="4">
         <v>7690</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7172,22 +7172,22 @@
         <v>66651</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C216" s="4">
         <v>7219</v>
       </c>
       <c r="D216" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E216" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>425</v>
-      </c>
       <c r="G216" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7195,22 +7195,22 @@
         <v>66290</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C217" s="4">
         <v>3836</v>
       </c>
       <c r="D217" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="G217" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7218,22 +7218,22 @@
         <v>66294</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C218" s="4">
         <v>3836</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7241,22 +7241,22 @@
         <v>66295</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C219" s="4">
         <v>3836</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7264,22 +7264,22 @@
         <v>66371</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C220" s="4">
         <v>1780</v>
       </c>
       <c r="D220" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E220" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F220" s="8" t="s">
-        <v>435</v>
-      </c>
       <c r="G220" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7287,22 +7287,22 @@
         <v>66372</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C221" s="4">
         <v>1780</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7310,22 +7310,22 @@
         <v>66374</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C222" s="4">
         <v>1780</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7333,22 +7333,22 @@
         <v>66765</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C223" s="4">
         <v>8382</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7356,22 +7356,22 @@
         <v>66240</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C224" s="4">
         <v>1479</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7379,22 +7379,22 @@
         <v>66325</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C225" s="4">
         <v>1479</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7402,22 +7402,22 @@
         <v>66242</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C226" s="4">
         <v>1479</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7425,22 +7425,22 @@
         <v>66340</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C227" s="4">
         <v>1479</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7448,22 +7448,22 @@
         <v>66341</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C228" s="4">
         <v>1479</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7471,22 +7471,22 @@
         <v>66249</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C229" s="4">
         <v>1479</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7494,22 +7494,22 @@
         <v>66342</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C230" s="4">
         <v>1479</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7517,22 +7517,22 @@
         <v>66256</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C231" s="4">
         <v>1743</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7540,22 +7540,22 @@
         <v>66346</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C232" s="4">
         <v>1743</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E232" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F232" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G232" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7563,22 +7563,22 @@
         <v>66626</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C233" s="4">
         <v>1743</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7586,22 +7586,22 @@
         <v>66276</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C234" s="4">
         <v>1743</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7609,22 +7609,22 @@
         <v>66354</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C235" s="4">
         <v>1743</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7632,22 +7632,22 @@
         <v>66277</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C236" s="4">
         <v>1743</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7655,22 +7655,22 @@
         <v>66355</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C237" s="4">
         <v>1743</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7678,22 +7678,22 @@
         <v>66356</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C238" s="4">
         <v>1743</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7701,22 +7701,22 @@
         <v>66357</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C239" s="4">
         <v>1743</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7724,22 +7724,22 @@
         <v>66278</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C240" s="4">
         <v>1743</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7747,22 +7747,22 @@
         <v>66358</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C241" s="4">
         <v>1743</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7770,22 +7770,22 @@
         <v>66489</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C242" s="4">
         <v>1743</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7793,22 +7793,22 @@
         <v>66764</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C243" s="4">
         <v>8562</v>
       </c>
       <c r="D243" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="E243" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>470</v>
-      </c>
       <c r="G243" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7816,22 +7816,22 @@
         <v>66503</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C244" s="4">
         <v>6498</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7839,22 +7839,22 @@
         <v>66504</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C245" s="4">
         <v>6498</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7862,22 +7862,22 @@
         <v>66505</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C246" s="4">
         <v>6498</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7885,22 +7885,22 @@
         <v>66466</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C247" s="4">
         <v>6498</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7908,22 +7908,22 @@
         <v>66506</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C248" s="4">
         <v>6498</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7931,22 +7931,22 @@
         <v>66645</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C249" s="4">
         <v>7732</v>
       </c>
       <c r="D249" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="E249" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>482</v>
-      </c>
       <c r="G249" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7954,22 +7954,22 @@
         <v>66649</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C250" s="4">
         <v>7212</v>
       </c>
       <c r="D250" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="E250" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F250" s="8" t="s">
-        <v>485</v>
-      </c>
       <c r="G250" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7977,22 +7977,22 @@
         <v>66630</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C251" s="4">
         <v>7733</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8000,22 +8000,22 @@
         <v>66636</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C252" s="4">
         <v>7734</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -8023,22 +8023,22 @@
         <v>66644</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C253" s="4">
         <v>7735</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -8046,22 +8046,22 @@
         <v>66047</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C254" s="4">
         <v>5505</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8069,22 +8069,22 @@
         <v>66053</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C255" s="4">
         <v>5505</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8092,22 +8092,22 @@
         <v>66059</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C256" s="4">
         <v>5505</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -8115,22 +8115,22 @@
         <v>66045</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C257" s="4">
         <v>6392</v>
       </c>
       <c r="D257" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E257" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F257" s="8" t="s">
-        <v>498</v>
-      </c>
       <c r="G257" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8138,22 +8138,22 @@
         <v>66051</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C258" s="4">
         <v>6392</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8161,22 +8161,22 @@
         <v>66057</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C259" s="4">
         <v>6392</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -8184,22 +8184,22 @@
         <v>66299</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C260" s="4">
         <v>3838</v>
       </c>
       <c r="D260" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="E260" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>504</v>
-      </c>
       <c r="G260" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8207,22 +8207,22 @@
         <v>66432</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C261" s="4">
         <v>3838</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8230,22 +8230,22 @@
         <v>66300</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C262" s="4">
         <v>3838</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8253,22 +8253,22 @@
         <v>66634</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C263" s="4">
         <v>8086</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8276,22 +8276,22 @@
         <v>66643</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C264" s="4">
         <v>7207</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8299,22 +8299,22 @@
         <v>66652</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C265" s="4">
         <v>7736</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8322,22 +8322,22 @@
         <v>66544</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C266" s="4">
         <v>7876</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8345,22 +8345,22 @@
         <v>66545</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C267" s="4">
         <v>7877</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8368,22 +8368,22 @@
         <v>66984</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C268" s="4">
         <v>5308</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8391,22 +8391,22 @@
         <v>66639</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C269" s="4">
         <v>7738</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8414,22 +8414,22 @@
         <v>66314</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C270" s="4">
         <v>3856</v>
       </c>
       <c r="D270" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E270" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>523</v>
-      </c>
       <c r="G270" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8437,22 +8437,22 @@
         <v>66382</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C271" s="4">
         <v>6409</v>
       </c>
       <c r="D271" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="E271" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>526</v>
-      </c>
       <c r="G271" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8460,22 +8460,22 @@
         <v>66383</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C272" s="4">
         <v>6409</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8483,22 +8483,22 @@
         <v>66384</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C273" s="4">
         <v>6409</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8506,22 +8506,22 @@
         <v>66385</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C274" s="4">
         <v>6409</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8529,22 +8529,22 @@
         <v>66387</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C275" s="4">
         <v>6409</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8552,22 +8552,22 @@
         <v>66633</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C276" s="4">
         <v>3877</v>
       </c>
       <c r="D276" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="E276" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="8" t="s">
-        <v>534</v>
-      </c>
       <c r="G276" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8575,22 +8575,22 @@
         <v>66647</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C277" s="4">
         <v>3886</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8598,22 +8598,22 @@
         <v>66526</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C278" s="4">
         <v>7778</v>
       </c>
       <c r="D278" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E278" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F278" s="8" t="s">
-        <v>539</v>
-      </c>
       <c r="G278" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8621,22 +8621,22 @@
         <v>66524</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C279" s="4">
         <v>7780</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8644,22 +8644,22 @@
         <v>67501</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C280" s="4">
         <v>8583</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8667,22 +8667,22 @@
         <v>66339</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C281" s="4">
         <v>7687</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8690,22 +8690,22 @@
         <v>66243</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C282" s="4">
         <v>7687</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8713,22 +8713,22 @@
         <v>66244</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C283" s="4">
         <v>7687</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8736,22 +8736,22 @@
         <v>66343</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C284" s="4">
         <v>7687</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8759,22 +8759,22 @@
         <v>66250</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C285" s="4">
         <v>7687</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8782,22 +8782,22 @@
         <v>66345</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C286" s="4">
         <v>7687</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8805,22 +8805,22 @@
         <v>66511</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C287" s="4">
         <v>7688</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8828,22 +8828,22 @@
         <v>66512</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C288" s="4">
         <v>7688</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8851,22 +8851,22 @@
         <v>66513</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C289" s="4">
         <v>7688</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8874,22 +8874,22 @@
         <v>66514</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C290" s="4">
         <v>7688</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8897,22 +8897,22 @@
         <v>66755</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C291" s="4">
         <v>8567</v>
       </c>
       <c r="D291" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="E291" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F291" s="8" t="s">
-        <v>562</v>
-      </c>
       <c r="G291" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8920,22 +8920,22 @@
         <v>66766</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C292" s="4">
         <v>7473</v>
       </c>
       <c r="D292" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="E292" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F292" s="8" t="s">
-        <v>565</v>
-      </c>
       <c r="G292" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8943,22 +8943,22 @@
         <v>66094</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C293" s="4">
         <v>5548</v>
       </c>
       <c r="D293" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="E293" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F293" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="G293" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8966,22 +8966,22 @@
         <v>66430</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C294" s="4">
         <v>6452</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8989,22 +8989,22 @@
         <v>66431</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C295" s="4">
         <v>6452</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -9012,22 +9012,22 @@
         <v>66767</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C296" s="4">
         <v>5330</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9035,22 +9035,22 @@
         <v>66986</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C297" s="4">
         <v>5678</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -9058,22 +9058,22 @@
         <v>66653</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C298" s="4">
         <v>7214</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9081,22 +9081,22 @@
         <v>66100</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C299" s="4">
         <v>6529</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9104,38 +9104,38 @@
         <v>66768</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C300" s="4">
         <v>3437</v>
       </c>
       <c r="D300" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="E300" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F300" s="8" t="s">
-        <v>582</v>
-      </c>
       <c r="G300" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="G303" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F305" s="9">
         <v>1</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -9146,14 +9146,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95c80e47-662b-4bc0-a457-b879d3f3aba4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9412,21 +9410,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95c80e47-662b-4bc0-a457-b879d3f3aba4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CB7EC2-18F2-46C6-A8AA-D895E9A30195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2671E79-D510-48B5-859C-A0DCC874C53A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f"/>
-    <ds:schemaRef ds:uri="95c80e47-662b-4bc0-a457-b879d3f3aba4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9451,9 +9448,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2671E79-D510-48B5-859C-A0DCC874C53A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CB7EC2-18F2-46C6-A8AA-D895E9A30195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f"/>
+    <ds:schemaRef ds:uri="95c80e47-662b-4bc0-a457-b879d3f3aba4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Leerplanillacupos/data/140823.xlsx
+++ b/Leerplanillacupos/data/140823.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gastonmousques/workspace/ExcelExporter/excelconverter/Leerplanillacupos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B85F3-EF84-6E41-92F8-CA8FCFAECA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E109888-137E-6949-BEFB-7231E2FB2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="760" windowWidth="21600" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13"/>
@@ -9146,12 +9146,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95c80e47-662b-4bc0-a457-b879d3f3aba4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9410,20 +9412,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95c80e47-662b-4bc0-a457-b879d3f3aba4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2671E79-D510-48B5-859C-A0DCC874C53A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CB7EC2-18F2-46C6-A8AA-D895E9A30195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f"/>
+    <ds:schemaRef ds:uri="95c80e47-662b-4bc0-a457-b879d3f3aba4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9448,12 +9451,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CB7EC2-18F2-46C6-A8AA-D895E9A30195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2671E79-D510-48B5-859C-A0DCC874C53A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f019ab0-5ffe-43e1-b2f8-62bc369ebe4f"/>
-    <ds:schemaRef ds:uri="95c80e47-662b-4bc0-a457-b879d3f3aba4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>